--- a/双周计划/哗啦啦实施部双周滚动计划（2018.02.05-02.09）-南京-徐沛华.xlsx
+++ b/双周计划/哗啦啦实施部双周滚动计划（2018.02.05-02.09）-南京-徐沛华.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20385" windowHeight="8370" tabRatio="763"/>
+    <workbookView windowWidth="19770" windowHeight="8370" tabRatio="763"/>
   </bookViews>
   <sheets>
     <sheet name="哗啦啦实施双周滚动计划" sheetId="4" r:id="rId1"/>
@@ -118,7 +118,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56">
   <si>
     <t>哗啦啦实施部门双周滚动计划</t>
   </si>
@@ -129,7 +129,7 @@
     <t>分公司实施负责人： 张磊</t>
   </si>
   <si>
-    <t>填表人：徐沛华</t>
+    <t>填表人：鲁青鹏</t>
   </si>
   <si>
     <t>项目角色：实施工程师</t>
@@ -212,10 +212,10 @@
     <t>一、部门（个人）重点工作</t>
   </si>
   <si>
-    <t>前往群湘汇更换机器。</t>
-  </si>
-  <si>
-    <t>徐沛华</t>
+    <t>去坛湘更换打印机，已完成</t>
+  </si>
+  <si>
+    <t>鲁青鹏</t>
   </si>
   <si>
     <t>张磊</t>
@@ -224,16 +224,16 @@
     <t>已完成</t>
   </si>
   <si>
-    <t>前往牛的故事调试电子秤并培训。</t>
-  </si>
-  <si>
-    <t>前往牛的故事火锅店调试电子秤并培训。</t>
-  </si>
-  <si>
-    <t>牛的故事火锅店驻店。</t>
-  </si>
-  <si>
-    <t>学习查看文档。</t>
+    <t>完成商户中心测试文档</t>
+  </si>
+  <si>
+    <t>去女人当家售后和培训</t>
+  </si>
+  <si>
+    <t>碰到一勺鲜打印机出现问题：打印机刚更换完成又无法工作，前去更换打印机之后回来进行维修，发现是打印机出纸键的问题（可能是油把出纸键泡坏了）更换完成之后打印机就可以正常进行工作</t>
+  </si>
+  <si>
+    <t>查看下发的各类文档，准备考核</t>
   </si>
   <si>
     <t/>
@@ -252,10 +252,10 @@
     <t>上周其他工作</t>
   </si>
   <si>
-    <t>编写报表中心。</t>
-  </si>
-  <si>
-    <t>查看SaaS文档。</t>
+    <t>完成前端测试文档、商户中心测试文档、报表中心</t>
+  </si>
+  <si>
+    <t>熟背SaaS文档。</t>
   </si>
   <si>
     <t>上周未完成工作情况说明</t>
@@ -302,9 +302,6 @@
   </si>
   <si>
     <t>分管领导强调任务</t>
-  </si>
-  <si>
-    <t>解决商户售后问题。</t>
   </si>
   <si>
     <t>参加部门考核。</t>
@@ -318,12 +315,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="6">
-    <numFmt numFmtId="176" formatCode="_ \¥* #,##0.00_ ;_ \¥* \-#,##0.00_ ;_ \¥* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="yyyy/m/d;@"/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="yyyy/m/d;@"/>
+    <numFmt numFmtId="177" formatCode="_ \¥* #,##0.00_ ;_ \¥* \-#,##0.00_ ;_ \¥* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="37">
     <font>
@@ -410,6 +407,87 @@
       <color rgb="FFFF0000"/>
       <name val="黑体"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <i/>
@@ -421,30 +499,15 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -459,17 +522,19 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color indexed="8"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <b/>
@@ -480,17 +545,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -503,68 +559,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="12"/>
       <name val="宋体"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <sz val="10"/>
@@ -619,241 +616,241 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="31"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="45"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="46"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="29"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="27"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="47"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="44"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="11"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="51"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor indexed="26"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="31"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="42"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="51"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="46"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="29"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="47"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="45"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="11"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="44"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="27"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1053,16 +1050,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1093,11 +1090,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1112,31 +1107,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="22"/>
-      </left>
-      <right style="thin">
-        <color indexed="22"/>
-      </right>
-      <top style="thin">
-        <color indexed="22"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="22"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1158,9 +1138,26 @@
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="22"/>
+      </left>
+      <right style="thin">
+        <color indexed="22"/>
+      </right>
+      <top style="thin">
+        <color indexed="22"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="22"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1172,13 +1169,13 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="12" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1187,425 +1184,425 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="16" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="16" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="9" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="16" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="21" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="21" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="26" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="26" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="29" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="14" borderId="20" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="14" borderId="20" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="35" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="21" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="14" borderId="20" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="14" borderId="20" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="34" fillId="46" borderId="22" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="46" borderId="22" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="35" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="46" borderId="22" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="46" borderId="22" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1697,7 +1694,7 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="177" fontId="6" fillId="0" borderId="4" xfId="127" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="176" fontId="6" fillId="0" borderId="4" xfId="127" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
@@ -1829,7 +1826,7 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="177" fontId="6" fillId="0" borderId="9" xfId="127" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="176" fontId="6" fillId="0" borderId="9" xfId="127" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
@@ -1975,8 +1972,8 @@
     <cellStyle name="40% - 强调文字颜色 3" xfId="7" builtinId="39"/>
     <cellStyle name="差" xfId="8" builtinId="27"/>
     <cellStyle name="千位分隔" xfId="9" builtinId="3"/>
-    <cellStyle name="20% - 强调文字颜色 1 2 2 2" xfId="10"/>
-    <cellStyle name="20% - 强调文字颜色 3 2 2" xfId="11"/>
+    <cellStyle name="20% - 强调文字颜色 3 2 2" xfId="10"/>
+    <cellStyle name="20% - 强调文字颜色 1 2 2 2" xfId="11"/>
     <cellStyle name="60% - 强调文字颜色 3" xfId="12" builtinId="40"/>
     <cellStyle name="超链接" xfId="13" builtinId="8"/>
     <cellStyle name="20% - 强调文字颜色 2 3 2" xfId="14"/>
@@ -2006,10 +2003,10 @@
     <cellStyle name="20% - 强调文字颜色 2 3" xfId="38"/>
     <cellStyle name="汇总" xfId="39" builtinId="25"/>
     <cellStyle name="好" xfId="40" builtinId="26"/>
-    <cellStyle name="适中" xfId="41" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 3 3" xfId="42"/>
-    <cellStyle name="40% - 强调文字颜色 2 2" xfId="43"/>
-    <cellStyle name="20% - 强调文字颜色 1 2 3" xfId="44"/>
+    <cellStyle name="40% - 强调文字颜色 2 2" xfId="41"/>
+    <cellStyle name="20% - 强调文字颜色 1 2 3" xfId="42"/>
+    <cellStyle name="适中" xfId="43" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 3 3" xfId="44"/>
     <cellStyle name="20% - 强调文字颜色 5" xfId="45" builtinId="46"/>
     <cellStyle name="强调文字颜色 1" xfId="46" builtinId="29"/>
     <cellStyle name="20% - 强调文字颜色 1" xfId="47" builtinId="30"/>
@@ -2036,15 +2033,15 @@
     <cellStyle name="20% - 强调文字颜色 2 2 2 2" xfId="68"/>
     <cellStyle name="20% - 强调文字颜色 2 2 3" xfId="69"/>
     <cellStyle name="20% - 强调文字颜色 3 2 2 2" xfId="70"/>
-    <cellStyle name="20% - 强调文字颜色 4 2" xfId="71"/>
-    <cellStyle name="常规 3" xfId="72"/>
+    <cellStyle name="常规 3" xfId="71"/>
+    <cellStyle name="20% - 强调文字颜色 4 2" xfId="72"/>
     <cellStyle name="20% - 强调文字颜色 4 2 2" xfId="73"/>
     <cellStyle name="20% - 强调文字颜色 4 2 2 2" xfId="74"/>
     <cellStyle name="20% - 强调文字颜色 4 2 3" xfId="75"/>
-    <cellStyle name="20% - 强调文字颜色 4 3" xfId="76"/>
-    <cellStyle name="常规 4" xfId="77"/>
-    <cellStyle name="20% - 强调文字颜色 4 3 2" xfId="78"/>
-    <cellStyle name="常规 4 2" xfId="79"/>
+    <cellStyle name="常规 4" xfId="76"/>
+    <cellStyle name="20% - 强调文字颜色 4 3" xfId="77"/>
+    <cellStyle name="常规 4 2" xfId="78"/>
+    <cellStyle name="20% - 强调文字颜色 4 3 2" xfId="79"/>
     <cellStyle name="20% - 强调文字颜色 5 2" xfId="80"/>
     <cellStyle name="20% - 强调文字颜色 5 2 2" xfId="81"/>
     <cellStyle name="20% - 强调文字颜色 5 2 2 2" xfId="82"/>
@@ -2087,8 +2084,8 @@
     <cellStyle name="40% - 强调文字颜色 6 2" xfId="119"/>
     <cellStyle name="40% - 强调文字颜色 6 2 2" xfId="120"/>
     <cellStyle name="40% - 强调文字颜色 6 2 2 2" xfId="121"/>
-    <cellStyle name="40% - 强调文字颜色 6 2 3" xfId="122"/>
-    <cellStyle name="货币 2" xfId="123"/>
+    <cellStyle name="货币 2" xfId="122"/>
+    <cellStyle name="40% - 强调文字颜色 6 2 3" xfId="123"/>
     <cellStyle name="40% - 强调文字颜色 6 3" xfId="124"/>
     <cellStyle name="40% - 强调文字颜色 6 3 2" xfId="125"/>
     <cellStyle name="常规 2" xfId="126"/>
@@ -2106,10 +2103,10 @@
     <cellStyle name="常规 4 2 2" xfId="138"/>
     <cellStyle name="常规 4 2 2 2" xfId="139"/>
     <cellStyle name="常规 5" xfId="140"/>
-    <cellStyle name="常规 6 2" xfId="141"/>
-    <cellStyle name="注释 2" xfId="142"/>
-    <cellStyle name="常规 6 2 2" xfId="143"/>
-    <cellStyle name="注释 2 2" xfId="144"/>
+    <cellStyle name="注释 2" xfId="141"/>
+    <cellStyle name="常规 6 2" xfId="142"/>
+    <cellStyle name="注释 2 2" xfId="143"/>
+    <cellStyle name="常规 6 2 2" xfId="144"/>
     <cellStyle name="常规_办公室" xfId="145"/>
     <cellStyle name="好 2" xfId="146"/>
     <cellStyle name="货币 2 2" xfId="147"/>
@@ -2416,8 +2413,8 @@
   </sheetPr>
   <dimension ref="B1:K66"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17:F17"/>
+    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="E15" sqref="E15:F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -2725,7 +2722,7 @@
       </c>
       <c r="K14" s="77"/>
     </row>
-    <row r="15" ht="30.95" customHeight="1" spans="2:11">
+    <row r="15" ht="54" customHeight="1" spans="2:11">
       <c r="B15" s="23">
         <v>4</v>
       </c>
@@ -3276,22 +3273,12 @@
     </row>
     <row r="45" ht="33.75" customHeight="1" spans="2:11">
       <c r="B45" s="23"/>
-      <c r="C45" s="24">
-        <v>43141</v>
-      </c>
-      <c r="D45" s="24">
-        <v>43143</v>
-      </c>
-      <c r="E45" s="55" t="s">
-        <v>55</v>
-      </c>
+      <c r="C45" s="24"/>
+      <c r="D45" s="24"/>
+      <c r="E45" s="55"/>
       <c r="F45" s="56"/>
-      <c r="G45" s="27" t="s">
-        <v>25</v>
-      </c>
-      <c r="H45" s="27" t="s">
-        <v>26</v>
-      </c>
+      <c r="G45" s="27"/>
+      <c r="H45" s="27"/>
       <c r="I45" s="81"/>
       <c r="J45" s="15"/>
       <c r="K45" s="77"/>
@@ -3348,7 +3335,7 @@
     </row>
     <row r="50" ht="24" customHeight="1" spans="2:11">
       <c r="B50" s="51" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C50" s="52"/>
       <c r="D50" s="52"/>
